--- a/src/assets/files/11.Turnos.xlsx
+++ b/src/assets/files/11.Turnos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comunidadunammx-my.sharepoint.com/personal/octavioanselmo_comunidad_unam_mx/Documents/PM Soluciones/IMSS/Tortoise/03-EJECUCION/04-SDIP/04-CÉLULA_JCJT/02_DSDIOH/OIAZ/Entregables/22/05_Mayo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brquezada\Documents\projects\frontEnd\gui-mst-adt-web\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3D9585-06E6-459C-AA56-70DE742E523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A706A8-60AB-4F5A-BEB7-7F577487B0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0F638D1C-D462-4B85-BCE4-1B1DACE0FD2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0F638D1C-D462-4B85-BCE4-1B1DACE0FD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="3_TURNOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Clave turno</t>
   </si>
@@ -44,43 +46,10 @@
     <t>4_30_6</t>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>numérico</t>
-  </si>
-  <si>
-    <t>Alfabético</t>
-  </si>
-  <si>
-    <t>No especificado</t>
-  </si>
-  <si>
     <t>Matutino</t>
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Vespertino</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Nocturno</t>
-  </si>
-  <si>
-    <t>Jorndada Acumulada</t>
-  </si>
-  <si>
-    <t>Horario mixto</t>
-  </si>
-  <si>
-    <t>Primaria</t>
   </si>
 </sst>
 </file>
@@ -445,7 +414,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,84 +434,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2">
+        <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.35">
@@ -567,6 +466,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -680,29 +594,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B6942-7329-4DAA-9F4C-8A7CB055BE53}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9A55F22-14A3-4176-9992-459AC0CBD600}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74DE794F-FF93-42F3-BEF4-FA22C66D3B46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74DE794F-FF93-42F3-BEF4-FA22C66D3B46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9A55F22-14A3-4176-9992-459AC0CBD600}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B6942-7329-4DAA-9F4C-8A7CB055BE53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/files/11.Turnos.xlsx
+++ b/src/assets/files/11.Turnos.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brquezada\Documents\projects\frontEnd\gui-mst-adt-web\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\validacionesTurnos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A706A8-60AB-4F5A-BEB7-7F577487B0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483081C3-D93C-449B-BAB7-1A63C0D0C577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0F638D1C-D462-4B85-BCE4-1B1DACE0FD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="3_TURNOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Clave turno</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Descripción de turno</t>
   </si>
@@ -46,10 +41,28 @@
     <t>4_30_6</t>
   </si>
   <si>
+    <t>No especificado</t>
+  </si>
+  <si>
     <t>Matutino</t>
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Vespertino</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Nocturno</t>
+  </si>
+  <si>
+    <t>Jorndada Acumulada</t>
+  </si>
+  <si>
+    <t>Horario mixto</t>
   </si>
 </sst>
 </file>
@@ -411,218 +424,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B89606-6955-433A-8179-5F4220A63E00}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all/>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9A55F22-14A3-4176-9992-459AC0CBD600}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74DE794F-FF93-42F3-BEF4-FA22C66D3B46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0B6942-7329-4DAA-9F4C-8A7CB055BE53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>